--- a/AtServerEngine/Data/Character/Class.xlsx
+++ b/AtServerEngine/Data/Character/Class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ath331\Desktop\a\Game\T_Survivor\AtServerEngine\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787AFACA-2B17-4A76-ACEC-3EF328824A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F73B3A-3E9F-4D63-A3A5-52D9EE285F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="5130" windowWidth="28800" windowHeight="15885" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
+    <workbookView xWindow="7410" yWindow="1590" windowWidth="28800" windowHeight="15885" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
